--- a/example_data/EPA/label_corrected/001021-02803-20180604_2018-12-08_003036.xlsx
+++ b/example_data/EPA/label_corrected/001021-02803-20180604_2018-12-08_003036.xlsx
@@ -828,7 +828,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -915,7 +915,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions || Pollinator</t>
+          <t>application instructions || env warning - species || pollinator</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions || Pollinator</t>
+          <t>application instructions || env warning - species || pollinator</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -971,7 +971,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions || Pollinator</t>
+          <t>application instructions || env warning - species || pollinator</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
